--- a/Data/DAE Reporting.xlsx
+++ b/Data/DAE Reporting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\femi1\Dropbox (Personal)\1. Build\3. SXR\Shepherd Math\2. Delivery\DAE - Project Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\femi1\Dropbox (Personal)\My PC (DESKTOP-OE0UT43)\Desktop\mathstar-client-reporting\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700866CF-E779-4B6C-B17B-600634191B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102BED7-B2D2-4329-97F8-544CFE90403E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3616,8 +3616,8 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
